--- a/xlsx/nor_oda_partners_oneyear.xlsx
+++ b/xlsx/nor_oda_partners_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på partnergrupper, 2023. Prosentfordeling</t>
+          <t>Arkfane Figurdata viser data for Bistand fordelt på partnergrupper, 2024. Prosentfordeling</t>
         </is>
       </c>
     </row>
@@ -429,72 +429,72 @@
         </is>
       </c>
       <c r="B2">
-        <v>31.74643647824</v>
+        <v>29.07339448214</v>
       </c>
       <c r="C2">
-        <v>0.5418976410296547</v>
+        <v>0.5220967023923377</v>
       </c>
       <c r="D2">
-        <v>0.5418976410296547</v>
+        <v>0.5220967023923377</v>
       </c>
       <c r="E2">
-        <v>0.2709488205148273</v>
+        <v>0.2610483511961689</v>
       </c>
       <c r="F2">
-        <v>1.702421648056402</v>
+        <v>1.640215164699225</v>
       </c>
       <c r="G2">
-        <v>0.5418976410296547</v>
+        <v>0.5220967023923377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sivilt samfunn</t>
+          <t>Offentlig sektor i Norge/ andre giverland</t>
         </is>
       </c>
       <c r="B3">
-        <v>13.17051050944</v>
+        <v>11.47190696414</v>
       </c>
       <c r="C3">
-        <v>0.2248147939726647</v>
+        <v>0.2060111969315639</v>
       </c>
       <c r="D3">
-        <v>0.7667124350023193</v>
+        <v>0.7281078993239016</v>
       </c>
       <c r="E3">
-        <v>0.6543050380159871</v>
+        <v>0.6251023008581197</v>
       </c>
       <c r="F3">
-        <v>4.11111980127563</v>
+        <v>3.927633592235891</v>
       </c>
       <c r="G3">
-        <v>0.2248147939726647</v>
+        <v>0.2060111969315639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Offentlig sektor i Norge/ andre giverland</t>
+          <t>Sivilt samfunn</t>
         </is>
       </c>
       <c r="B4">
-        <v>11.648993544</v>
+        <v>11.27900405393</v>
       </c>
       <c r="C4">
-        <v>0.1988431717742589</v>
+        <v>0.2025470684699082</v>
       </c>
       <c r="D4">
-        <v>0.9655556067765783</v>
+        <v>0.9306549677938099</v>
       </c>
       <c r="E4">
-        <v>0.8661340208894488</v>
+        <v>0.8293814335588557</v>
       </c>
       <c r="F4">
-        <v>5.442080554100961</v>
+        <v>5.211157237384545</v>
       </c>
       <c r="G4">
-        <v>0.1988431717742589</v>
+        <v>0.2025470684699082</v>
       </c>
     </row>
     <row r="5">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.23377709</v>
+        <v>2.2920927325</v>
       </c>
       <c r="C5">
-        <v>0.02106002968508602</v>
+        <v>0.04116113988515619</v>
       </c>
       <c r="D5">
-        <v>0.9866156364616643</v>
+        <v>0.9718161076789661</v>
       </c>
       <c r="E5">
-        <v>0.9760856216191213</v>
+        <v>0.951235537736388</v>
       </c>
       <c r="F5">
-        <v>6.132926836306516</v>
+        <v>5.976789154372346</v>
       </c>
       <c r="G5">
-        <v>0.02106002968508602</v>
+        <v>0.04116113988515619</v>
       </c>
     </row>
     <row r="6">
@@ -529,19 +529,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.784107209</v>
+        <v>1.56944377495</v>
       </c>
       <c r="C6">
-        <v>0.01338436353833572</v>
+        <v>0.02818389232103398</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.9933078182308321</v>
+        <v>0.985908053839483</v>
       </c>
       <c r="F6">
-        <v>6.241137089014575</v>
+        <v>6.19464299811426</v>
+      </c>
+      <c r="G6">
+        <v>0.02818389232103398</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_partners_oneyear.xlsx
+++ b/xlsx/nor_oda_partners_oneyear.xlsx
@@ -450,51 +450,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Offentlig sektor i Norge/ andre giverland</t>
+          <t>Sivilt samfunn</t>
         </is>
       </c>
       <c r="B3">
-        <v>11.47190696414</v>
+        <v>11.77526762493</v>
       </c>
       <c r="C3">
-        <v>0.2060111969315639</v>
+        <v>0.2114589130808191</v>
       </c>
       <c r="D3">
-        <v>0.7281078993239016</v>
+        <v>0.7335556154731568</v>
       </c>
       <c r="E3">
-        <v>0.6251023008581197</v>
+        <v>0.6278261589327473</v>
       </c>
       <c r="F3">
-        <v>3.927633592235891</v>
+        <v>3.944748097269234</v>
       </c>
       <c r="G3">
-        <v>0.2060111969315639</v>
+        <v>0.2114589130808191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sivilt samfunn</t>
+          <t>Offentlig sektor i Norge/ andre giverland</t>
         </is>
       </c>
       <c r="B4">
-        <v>11.27900405393</v>
+        <v>11.47190696414</v>
       </c>
       <c r="C4">
-        <v>0.2025470684699082</v>
+        <v>0.2060111969315639</v>
       </c>
       <c r="D4">
-        <v>0.9306549677938099</v>
+        <v>0.9395668124047207</v>
       </c>
       <c r="E4">
-        <v>0.8293814335588557</v>
+        <v>0.8365612139389388</v>
       </c>
       <c r="F4">
-        <v>5.211157237384545</v>
+        <v>5.256269127977458</v>
       </c>
       <c r="G4">
-        <v>0.2025470684699082</v>
+        <v>0.2060111969315639</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         <v>0.04116113988515619</v>
       </c>
       <c r="D5">
-        <v>0.9718161076789661</v>
+        <v>0.980727952289877</v>
       </c>
       <c r="E5">
-        <v>0.951235537736388</v>
+        <v>0.9601473823472989</v>
       </c>
       <c r="F5">
-        <v>5.976789154372346</v>
+        <v>6.032783925491489</v>
       </c>
       <c r="G5">
         <v>0.04116113988515619</v>
@@ -529,22 +529,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>1.56944377495</v>
+        <v>1.07318020395</v>
       </c>
       <c r="C6">
-        <v>0.02818389232103398</v>
+        <v>0.01927204771012309</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.985908053839483</v>
+        <v>0.9903639761449384</v>
       </c>
       <c r="F6">
-        <v>6.19464299811426</v>
-      </c>
-      <c r="G6">
-        <v>0.02818389232103398</v>
+        <v>6.222640383673832</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_partners_oneyear.xlsx
+++ b/xlsx/nor_oda_partners_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på partnergrupper, 2024. Prosentfordeling</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand fordelt på partnergrupper. 2024. Prosentfordeling</t>
         </is>
       </c>
     </row>
